--- a/sprints/15_05-06_06.xlsx
+++ b/sprints/15_05-06_06.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
-    <t>PLANEJAMENTO 11 abr - 20 abr</t>
+    <t>PLANEJAMENTO 15 maio - 6 jun</t>
   </si>
   <si>
     <t>Responsável</t>
@@ -214,7 +214,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
